--- a/data/s3/Aradas/archetypes/stats_trans.xlsx
+++ b/data/s3/Aradas/archetypes/stats_trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Annelinn\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Aradas\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC488432-458A-4A09-A2FC-EE1B5A38DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F7704-A244-4254-A738-1409692F2629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="855" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -443,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D17"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,10 +453,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -476,17 +473,17 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="C2" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,17 +493,17 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1706</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -516,17 +513,17 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+      <c r="C4" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -536,17 +533,17 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+      <c r="C5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -556,17 +553,17 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+      <c r="C6" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,17 +573,17 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="C7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -596,17 +593,17 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+      <c r="C8" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,17 +613,17 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="C9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -636,17 +633,17 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+      <c r="C10" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,17 +653,17 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+      <c r="C11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -676,17 +673,17 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+      <c r="C12" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -696,17 +693,17 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="C13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -716,17 +713,17 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
+      <c r="C14" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -736,17 +733,17 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="C15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -756,17 +753,17 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
+      <c r="C16" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,17 +773,17 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+      <c r="C17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
